--- a/aat/src/resource/CCD_TestDefinition_Invalid_NOC_CONFIG.xlsx
+++ b/aat/src/resource/CCD_TestDefinition_Invalid_NOC_CONFIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/ccd-definition-store-api/aat/src/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39AD1BE-765F-284A-BB3C-2AC7104F4A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665628AA-FF5B-BB47-A095-700DEFE09821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35200" windowHeight="19700" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="369">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -820,19 +820,10 @@
     <t>CRUD</t>
   </si>
   <si>
-    <t>CaseWorker1</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>CaseWorker2</t>
-  </si>
-  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>CaseWorker3</t>
   </si>
   <si>
     <t>druc</t>
@@ -1190,6 +1181,9 @@
   </si>
   <si>
     <t>Yes or No, to enable or disable the noc action interpretaion</t>
+  </si>
+  <si>
+    <t>caseworker-test</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1195,7 @@
     <numFmt numFmtId="165" formatCode="d\/m\/yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1525,6 +1519,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1840,7 +1840,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1995,7 +1995,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -2104,7 +2103,6 @@
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="49" fontId="42" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2141,6 +2139,7 @@
     <xf numFmtId="49" fontId="48" fillId="4" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2155,7 +2154,7 @@
     <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -2276,9 +2275,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -2305,27 +2302,6 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2501,7 +2477,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCF0B6CA-1389-F943-8834-08C2CBF9363C}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCF0B6CA-1389-F943-8834-08C2CBF9363C}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E277F92C-B872-E748-8197-EAF3F7420713}" name="CaseTypeId" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{11FE3222-3E14-3047-BACA-67400A55BBD7}" name="ReasonRequired" dataDxfId="1"/>
@@ -3115,9 +3091,9 @@
         <v>185</v>
       </c>
       <c r="K2" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="152"/>
+        <v>261</v>
+      </c>
+      <c r="L2" s="151"/>
       <c r="M2" s="13" t="s">
         <v>116</v>
       </c>
@@ -3128,7 +3104,7 @@
         <v>187</v>
       </c>
       <c r="P2" s="102" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -3165,10 +3141,10 @@
         <v>194</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="L3" s="153" t="s">
-        <v>315</v>
+        <v>262</v>
+      </c>
+      <c r="L3" s="152" t="s">
+        <v>312</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>118</v>
@@ -3180,13 +3156,13 @@
         <v>197</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q3" s="151" t="s">
-        <v>309</v>
-      </c>
-      <c r="R3" s="151" t="s">
-        <v>310</v>
+        <v>270</v>
+      </c>
+      <c r="Q3" s="150" t="s">
+        <v>306</v>
+      </c>
+      <c r="R3" s="150" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3217,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L4" s="99"/>
       <c r="M4" s="4"/>
@@ -3229,10 +3205,10 @@
         <v>2</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3263,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L5" s="99"/>
       <c r="M5" s="4"/>
@@ -3303,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L6" s="99"/>
       <c r="M6" s="4"/>
@@ -3339,7 +3315,7 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L7" s="99"/>
       <c r="M7" s="4"/>
@@ -3375,7 +3351,7 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L8" s="99"/>
       <c r="M8" s="3" t="s">
@@ -3415,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L9" s="99"/>
       <c r="M9" s="4"/>
@@ -3447,7 +3423,7 @@
       </c>
       <c r="H10" s="113"/>
       <c r="I10" s="111" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J10" s="113">
         <v>1</v>
@@ -3487,13 +3463,13 @@
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J11" s="113">
         <v>1</v>
       </c>
       <c r="K11" s="113" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L11" s="113"/>
       <c r="M11" s="113"/>
@@ -3527,13 +3503,13 @@
       </c>
       <c r="H12" s="113"/>
       <c r="I12" s="33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J12" s="113">
         <v>1</v>
       </c>
       <c r="K12" s="113" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L12" s="113"/>
       <c r="M12" s="113"/>
@@ -3585,10 +3561,10 @@
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3621,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L14" s="99"/>
       <c r="M14" s="4"/>
@@ -3649,23 +3625,23 @@
       <c r="E15" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="117" t="s">
-        <v>317</v>
+      <c r="F15" s="116" t="s">
+        <v>314</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="117" t="s">
-        <v>316</v>
+      <c r="I15" s="116" t="s">
+        <v>313</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="L15" s="155"/>
+        <v>264</v>
+      </c>
+      <c r="L15" s="154"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3701,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="4"/>
@@ -3719,13 +3695,13 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="111"/>
-      <c r="F17" s="117"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="117"/>
+      <c r="I17" s="116"/>
       <c r="J17" s="4"/>
       <c r="K17" s="99"/>
-      <c r="L17" s="154"/>
+      <c r="L17" s="153"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -3827,7 +3803,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3855,8 +3831,8 @@
         <v>3</v>
       </c>
       <c r="E1" s="47"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
       <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.15">
@@ -3871,11 +3847,11 @@
       <c r="E2" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="205" t="s">
-        <v>362</v>
-      </c>
-      <c r="G2" s="165" t="s">
-        <v>331</v>
+      <c r="F2" s="203" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="164" t="s">
+        <v>328</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>156</v>
@@ -3897,10 +3873,10 @@
       <c r="E3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="161" t="s">
+      <c r="F3" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="123" t="s">
         <v>247</v>
       </c>
       <c r="H3" s="50" t="s">
@@ -3921,8 +3897,8 @@
       <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="47">
         <v>1</v>
       </c>
@@ -3941,8 +3917,8 @@
       <c r="E5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="47">
         <v>2</v>
       </c>
@@ -3961,8 +3937,8 @@
       <c r="E6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
       <c r="H6" s="47">
         <v>3</v>
       </c>
@@ -3981,9 +3957,9 @@
       <c r="E7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172" t="s">
-        <v>249</v>
+      <c r="F7" s="171"/>
+      <c r="G7" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="H7" s="47">
         <v>1</v>
@@ -4003,8 +3979,8 @@
       <c r="E8" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
       <c r="H8" s="47">
         <v>2</v>
       </c>
@@ -4023,8 +3999,8 @@
       <c r="E9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
       <c r="H9" s="47">
         <v>3</v>
       </c>
@@ -4043,8 +4019,8 @@
       <c r="E10" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
       <c r="H10" s="47">
         <v>4</v>
       </c>
@@ -4063,8 +4039,8 @@
       <c r="E11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
       <c r="H11" s="47">
         <v>5</v>
       </c>
@@ -4083,8 +4059,8 @@
       <c r="E12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
       <c r="H12" s="47">
         <v>6</v>
       </c>
@@ -4103,8 +4079,8 @@
       <c r="E13" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
       <c r="H13" s="47">
         <v>7</v>
       </c>
@@ -4123,8 +4099,8 @@
       <c r="E14" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
       <c r="H14" s="47">
         <v>8</v>
       </c>
@@ -4143,8 +4119,8 @@
       <c r="E15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
       <c r="H15" s="47">
         <v>9</v>
       </c>
@@ -4163,10 +4139,10 @@
       <c r="E16" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="172" t="s">
-        <v>363</v>
-      </c>
-      <c r="G16" s="172"/>
+      <c r="F16" s="171" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="171"/>
       <c r="H16" s="47">
         <v>10</v>
       </c>
@@ -4185,7 +4161,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4228,8 +4204,8 @@
       <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="165" t="s">
-        <v>331</v>
+      <c r="F2" s="164" t="s">
+        <v>328</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>156</v>
@@ -4251,7 +4227,7 @@
       <c r="E3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="123" t="s">
         <v>247</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -4272,7 +4248,7 @@
       <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="172"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="47">
         <v>1</v>
       </c>
@@ -4291,7 +4267,7 @@
       <c r="E5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="172"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="47">
         <v>2</v>
       </c>
@@ -4310,27 +4286,27 @@
       <c r="E6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="172"/>
+      <c r="F6" s="171"/>
       <c r="G6" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="202">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="178" t="s">
+      <c r="A7" s="200">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="201"/>
+      <c r="C7" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="178" t="s">
-        <v>360</v>
-      </c>
-      <c r="E7" s="204" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" s="204"/>
-      <c r="G7" s="203">
+      <c r="D7" s="177" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="202" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" s="202"/>
+      <c r="G7" s="201">
         <v>4</v>
       </c>
     </row>
@@ -4348,8 +4324,8 @@
       <c r="E8" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="172" t="s">
-        <v>249</v>
+      <c r="F8" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="G8" s="47">
         <v>2</v>
@@ -4369,7 +4345,7 @@
       <c r="E9" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="172"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="47">
         <v>3</v>
       </c>
@@ -4388,7 +4364,7 @@
       <c r="E10" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="172"/>
+      <c r="F10" s="171"/>
       <c r="G10" s="47">
         <v>1</v>
       </c>
@@ -4407,7 +4383,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4435,7 +4411,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="60"/>
-      <c r="F1" s="177"/>
+      <c r="F1" s="176"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
     </row>
@@ -4451,11 +4427,11 @@
       <c r="E2" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="205" t="s">
-        <v>362</v>
-      </c>
-      <c r="G2" s="165" t="s">
-        <v>331</v>
+      <c r="F2" s="203" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="164" t="s">
+        <v>328</v>
       </c>
       <c r="H2" s="62" t="s">
         <v>156</v>
@@ -4477,10 +4453,10 @@
       <c r="E3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="161" t="s">
+      <c r="F3" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="123" t="s">
         <v>247</v>
       </c>
       <c r="H3" s="63" t="s">
@@ -4501,8 +4477,8 @@
       <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="47">
         <v>1</v>
       </c>
@@ -4522,7 +4498,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="53"/>
-      <c r="G5" s="172"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="47">
         <v>2</v>
       </c>
@@ -4541,8 +4517,8 @@
       <c r="E6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
       <c r="H6" s="47">
         <v>3</v>
       </c>
@@ -4561,9 +4537,9 @@
       <c r="E7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172" t="s">
-        <v>249</v>
+      <c r="F7" s="171"/>
+      <c r="G7" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="H7" s="47">
         <v>1</v>
@@ -4583,8 +4559,8 @@
       <c r="E8" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
       <c r="H8" s="47">
         <v>2</v>
       </c>
@@ -4603,8 +4579,8 @@
       <c r="E9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
       <c r="H9" s="47">
         <v>3</v>
       </c>
@@ -4623,8 +4599,8 @@
       <c r="E10" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
       <c r="H10" s="47">
         <v>4</v>
       </c>
@@ -4643,8 +4619,8 @@
       <c r="E11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
       <c r="H11" s="47">
         <v>5</v>
       </c>
@@ -4663,8 +4639,8 @@
       <c r="E12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
       <c r="H12" s="47">
         <v>6</v>
       </c>
@@ -4683,8 +4659,8 @@
       <c r="E13" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
       <c r="H13" s="47">
         <v>7</v>
       </c>
@@ -4704,9 +4680,9 @@
         <v>82</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="G14" s="172"/>
+        <v>361</v>
+      </c>
+      <c r="G14" s="171"/>
       <c r="H14" s="47">
         <v>8</v>
       </c>
@@ -4725,8 +4701,8 @@
       <c r="E15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
       <c r="H15" s="47">
         <v>9</v>
       </c>
@@ -4745,8 +4721,8 @@
       <c r="E16" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
       <c r="H16" s="47">
         <v>10</v>
       </c>
@@ -4808,8 +4784,8 @@
       <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="165" t="s">
-        <v>331</v>
+      <c r="F2" s="164" t="s">
+        <v>328</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>156</v>
@@ -4831,7 +4807,7 @@
       <c r="E3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="123" t="s">
         <v>247</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -4852,7 +4828,7 @@
       <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="172"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="47">
         <v>1</v>
       </c>
@@ -4871,7 +4847,7 @@
       <c r="E5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="172"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="47">
         <v>1</v>
       </c>
@@ -4890,7 +4866,7 @@
       <c r="E6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="172"/>
+      <c r="F6" s="171"/>
       <c r="G6" s="47">
         <v>1</v>
       </c>
@@ -4900,7 +4876,7 @@
         <v>42736</v>
       </c>
       <c r="B7" s="47"/>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="116" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -4909,8 +4885,8 @@
       <c r="E7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="119" t="s">
-        <v>249</v>
+      <c r="F7" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="G7" s="47">
         <v>2</v>
@@ -4930,7 +4906,7 @@
       <c r="E8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="119"/>
+      <c r="F8" s="118"/>
       <c r="G8" s="47">
         <v>3</v>
       </c>
@@ -4949,7 +4925,7 @@
       <c r="E9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="172"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="47">
         <v>1</v>
       </c>
@@ -4968,7 +4944,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4994,13 +4970,13 @@
         <v>224</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="175" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
@@ -5013,174 +4989,174 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="70" x14ac:dyDescent="0.15">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="165" t="s">
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="165" t="s">
+      <c r="E2" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="164" t="s">
+      <c r="G2" s="163" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="164" t="s">
+      <c r="H2" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="165" t="s">
-        <v>331</v>
-      </c>
-      <c r="J2" s="164" t="s">
+      <c r="I2" s="164" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" s="163" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="160" t="s">
-        <v>272</v>
-      </c>
-      <c r="L2" s="167" t="s">
-        <v>271</v>
-      </c>
-      <c r="M2" s="168" t="s">
-        <v>318</v>
+      <c r="K2" s="159" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="166" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" s="167" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="123" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="123" t="s">
         <v>231</v>
       </c>
-      <c r="K3" s="169" t="s">
+      <c r="K3" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="169" t="s">
-        <v>268</v>
-      </c>
-      <c r="M3" s="170" t="s">
-        <v>315</v>
+      <c r="L3" s="168" t="s">
+        <v>265</v>
+      </c>
+      <c r="M3" s="169" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="119" t="s">
+      <c r="A4" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="170"/>
+      <c r="C4" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="171" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="99">
         <v>1</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="118" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="99">
         <v>1</v>
       </c>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163" t="s">
-        <v>270</v>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162" t="s">
+        <v>267</v>
       </c>
       <c r="M4" s="107"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="119" t="s">
+      <c r="A5" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="170"/>
+      <c r="C5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="171" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="99">
         <v>1</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="150" t="s">
-        <v>249</v>
+      <c r="I5" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="J5" s="99">
         <v>2</v>
       </c>
-      <c r="K5" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="L5" s="163"/>
+      <c r="K5" s="118" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="162"/>
       <c r="M5" s="99"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="119" t="s">
+      <c r="A6" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="170"/>
+      <c r="C6" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="E6" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="172" t="s">
+      <c r="F6" s="171" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="99">
         <v>2</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="119"/>
+      <c r="I6" s="118"/>
       <c r="J6" s="99">
         <v>1</v>
       </c>
@@ -5189,29 +5165,29 @@
       <c r="M6" s="99"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="119" t="s">
+      <c r="A7" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="170"/>
+      <c r="C7" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="119" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="172" t="s">
-        <v>285</v>
+      <c r="E7" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="171" t="s">
+        <v>282</v>
       </c>
       <c r="G7" s="99">
         <v>3</v>
       </c>
-      <c r="H7" s="119" t="s">
-        <v>282</v>
-      </c>
-      <c r="I7" s="119"/>
+      <c r="H7" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="I7" s="118"/>
       <c r="J7" s="99">
         <v>1</v>
       </c>
@@ -5220,29 +5196,29 @@
       <c r="M7" s="99"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="171"/>
-      <c r="C8" s="119" t="s">
+      <c r="A8" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="170"/>
+      <c r="C8" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="119" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" s="172" t="s">
-        <v>330</v>
+      <c r="E8" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="171" t="s">
+        <v>327</v>
       </c>
       <c r="G8" s="99">
         <v>4</v>
       </c>
-      <c r="H8" s="119" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="119"/>
+      <c r="H8" s="118" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="118"/>
       <c r="J8" s="99">
         <v>1</v>
       </c>
@@ -5251,60 +5227,60 @@
       <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="119" t="s">
+      <c r="A9" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="170"/>
+      <c r="C9" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="150" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="172" t="s">
-        <v>317</v>
+      <c r="E9" s="149" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="171" t="s">
+        <v>314</v>
       </c>
       <c r="G9" s="99">
         <v>4</v>
       </c>
-      <c r="H9" s="150" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" s="150"/>
+      <c r="H9" s="149" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="149"/>
       <c r="J9" s="99">
         <v>1</v>
       </c>
       <c r="K9" s="99"/>
       <c r="L9" s="99"/>
-      <c r="M9" s="173"/>
+      <c r="M9" s="172"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="119" t="s">
+      <c r="A10" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="170"/>
+      <c r="C10" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="F10" s="172" t="s">
+      <c r="F10" s="171" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="99">
         <v>1</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="150"/>
+      <c r="I10" s="149"/>
       <c r="J10" s="99">
         <v>1</v>
       </c>
@@ -5313,29 +5289,29 @@
       <c r="M10" s="99"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="171"/>
-      <c r="C11" s="119" t="s">
+      <c r="A11" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="170"/>
+      <c r="C11" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="172" t="s">
+      <c r="F11" s="171" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="99">
         <v>1</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="H11" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="119"/>
+      <c r="I11" s="118"/>
       <c r="J11" s="99">
         <v>2</v>
       </c>
@@ -5344,29 +5320,29 @@
       <c r="M11" s="99"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="119" t="s">
+      <c r="A12" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="170"/>
+      <c r="C12" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="F12" s="172" t="s">
+      <c r="F12" s="171" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="99">
         <v>2</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="119"/>
+      <c r="I12" s="118"/>
       <c r="J12" s="99">
         <v>1</v>
       </c>
@@ -5375,29 +5351,29 @@
       <c r="M12" s="99"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="119" t="s">
+      <c r="A13" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="170"/>
+      <c r="C13" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="119" t="s">
+      <c r="E13" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="172" t="s">
+      <c r="F13" s="171" t="s">
         <v>235</v>
       </c>
       <c r="G13" s="99">
         <v>3</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="119"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="99">
         <v>1</v>
       </c>
@@ -5406,29 +5382,29 @@
       <c r="M13" s="99"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="119" t="s">
+      <c r="A14" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="170"/>
+      <c r="C14" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="172" t="s">
+      <c r="F14" s="171" t="s">
         <v>235</v>
       </c>
       <c r="G14" s="99">
         <v>3</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="119"/>
+      <c r="I14" s="118"/>
       <c r="J14" s="99">
         <v>2</v>
       </c>
@@ -5437,29 +5413,29 @@
       <c r="M14" s="99"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="171"/>
-      <c r="C15" s="119" t="s">
+      <c r="A15" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="170"/>
+      <c r="C15" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="172" t="s">
+      <c r="F15" s="171" t="s">
         <v>235</v>
       </c>
       <c r="G15" s="99">
         <v>3</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="118"/>
       <c r="J15" s="99">
         <v>3</v>
       </c>
@@ -5468,29 +5444,29 @@
       <c r="M15" s="99"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="119" t="s">
+      <c r="A16" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="170"/>
+      <c r="C16" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="172" t="s">
+      <c r="F16" s="171" t="s">
         <v>236</v>
       </c>
       <c r="G16" s="99">
         <v>4</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="118"/>
       <c r="J16" s="99">
         <v>1</v>
       </c>
@@ -5499,29 +5475,29 @@
       <c r="M16" s="99"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="119" t="s">
+      <c r="A17" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="170"/>
+      <c r="C17" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="119" t="s">
+      <c r="E17" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="172" t="s">
+      <c r="F17" s="171" t="s">
         <v>235</v>
       </c>
       <c r="G17" s="99">
         <v>3</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="119"/>
+      <c r="I17" s="118"/>
       <c r="J17" s="99">
         <v>4</v>
       </c>
@@ -5530,29 +5506,29 @@
       <c r="M17" s="99"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="119" t="s">
+      <c r="A18" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="170"/>
+      <c r="C18" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="E18" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="172" t="s">
+      <c r="F18" s="171" t="s">
         <v>235</v>
       </c>
       <c r="G18" s="99">
         <v>3</v>
       </c>
-      <c r="H18" s="119" t="s">
+      <c r="H18" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="119"/>
+      <c r="I18" s="118"/>
       <c r="J18" s="99">
         <v>5</v>
       </c>
@@ -5561,29 +5537,29 @@
       <c r="M18" s="99"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="171">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="119" t="s">
+      <c r="A19" s="170">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="170"/>
+      <c r="C19" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="172" t="s">
+      <c r="F19" s="171" t="s">
         <v>235</v>
       </c>
       <c r="G19" s="99">
         <v>3</v>
       </c>
-      <c r="H19" s="119" t="s">
+      <c r="H19" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="119"/>
+      <c r="I19" s="118"/>
       <c r="J19" s="99">
         <v>6</v>
       </c>
@@ -5831,128 +5807,128 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="143" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="124" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="124" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="143" t="s">
+      <c r="C5" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="124" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="145" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="146" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="125" t="s">
+      <c r="D6" s="124" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="125" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="125" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="125" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="125" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="125" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="147" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="126" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="147" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="126" t="s">
-        <v>297</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="125" t="s">
+      <c r="C9" s="124" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="124" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="147" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="125" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="125" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="147" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="126" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="125" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5965,7 +5941,7 @@
   <dimension ref="A1:IP12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5978,17 +5954,17 @@
     <col min="251" max="1020" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" s="129" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:250" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="122" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="99"/>
@@ -6239,15 +6215,15 @@
       <c r="IP1" s="17"/>
     </row>
     <row r="2" spans="1:250" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="127" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="127" t="s">
         <v>246</v>
       </c>
       <c r="F2" s="25"/>
@@ -6497,19 +6473,19 @@
       <c r="IP2" s="108"/>
     </row>
     <row r="3" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="123" t="s">
         <v>248</v>
       </c>
       <c r="F3" s="25"/>
@@ -6759,18 +6735,18 @@
       <c r="IP3" s="26"/>
     </row>
     <row r="4" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="118">
+      <c r="A4" s="117">
         <v>42736</v>
       </c>
       <c r="B4" s="99"/>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="118" t="s">
         <v>249</v>
-      </c>
-      <c r="E4" s="119" t="s">
-        <v>250</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="17"/>
@@ -7019,18 +6995,18 @@
       <c r="IP4" s="26"/>
     </row>
     <row r="5" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="118">
+      <c r="A5" s="117">
         <v>42736</v>
       </c>
       <c r="B5" s="99"/>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="119" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="119" t="s">
-        <v>252</v>
+      <c r="D5" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>250</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="17"/>
@@ -7279,17 +7255,17 @@
       <c r="IP5" s="26"/>
     </row>
     <row r="6" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="118">
+      <c r="A6" s="117">
         <v>42736</v>
       </c>
       <c r="B6" s="99"/>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="119" t="s">
+      <c r="D6" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="118" t="s">
         <v>248</v>
       </c>
       <c r="F6" s="25"/>
@@ -7539,17 +7515,17 @@
       <c r="IP6" s="26"/>
     </row>
     <row r="7" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="118">
+      <c r="A7" s="117">
         <v>42736</v>
       </c>
       <c r="B7" s="99"/>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="125" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="119" t="s">
+      <c r="D7" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="118" t="s">
         <v>248</v>
       </c>
       <c r="F7" s="25"/>
@@ -7799,18 +7775,18 @@
       <c r="IP7" s="108"/>
     </row>
     <row r="8" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="118">
+      <c r="A8" s="117">
         <v>42736</v>
       </c>
       <c r="B8" s="99"/>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="119" t="s">
-        <v>249</v>
-      </c>
-      <c r="E8" s="119" t="s">
-        <v>254</v>
+      <c r="D8" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>251</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="17"/>
@@ -8059,18 +8035,18 @@
       <c r="IP8" s="26"/>
     </row>
     <row r="9" spans="1:250" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="118">
+      <c r="A9" s="117">
         <v>42736</v>
       </c>
       <c r="B9" s="99"/>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="119" t="s">
-        <v>251</v>
-      </c>
-      <c r="E9" s="119" t="s">
-        <v>255</v>
+      <c r="D9" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>252</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="17"/>
@@ -8319,18 +8295,18 @@
       <c r="IP9" s="26"/>
     </row>
     <row r="10" spans="1:250" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="118">
+      <c r="A10" s="117">
         <v>42736</v>
       </c>
       <c r="B10" s="99"/>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="118" t="s">
         <v>253</v>
-      </c>
-      <c r="E10" s="119" t="s">
-        <v>256</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -8578,19 +8554,19 @@
       <c r="IO10" s="17"/>
       <c r="IP10" s="108"/>
     </row>
-    <row r="11" spans="1:250" s="129" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="118">
+    <row r="11" spans="1:250" s="128" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="117">
         <v>42736</v>
       </c>
       <c r="B11" s="99"/>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="126" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="119" t="s">
-        <v>256</v>
+      <c r="D11" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="118" t="s">
+        <v>253</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -8838,7 +8814,7 @@
       <c r="IO11" s="17"/>
       <c r="IP11" s="17"/>
     </row>
-    <row r="12" spans="1:250" s="129" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:250" s="128" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9104,7 +9080,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9120,576 +9096,576 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="133" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="149" t="s">
+      <c r="E3" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="135" t="s">
+      <c r="F3" s="134" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="130" t="s">
+      <c r="A4" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="130"/>
+      <c r="C4" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="130" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="130"/>
+      <c r="C5" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="129" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="130" t="s">
+    <row r="6" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="130"/>
+      <c r="C6" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D6" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="130" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="130" t="s">
+      <c r="E6" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="130"/>
+      <c r="C7" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D7" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="130"/>
+      <c r="C8" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="129" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="130"/>
+      <c r="C9" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" s="129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="136">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="137"/>
+      <c r="C10" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="136">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="136">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="118" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F15" s="129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17" s="129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="130"/>
+      <c r="C18" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="130"/>
+      <c r="C19" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F19" s="129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="130"/>
+      <c r="C20" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" s="130" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="130" t="s">
+      <c r="E20" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" s="129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="130"/>
+      <c r="C21" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E21" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F21" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="130" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="137">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="139" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="139" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="137">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="119" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="139" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="137">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="119" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="139" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="130" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="130"/>
+      <c r="C22" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="130" t="s">
+      <c r="E22" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="F14" s="130" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="130" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="130" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="130"/>
+      <c r="C23" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F23" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="130" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="130" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="130"/>
+      <c r="C24" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F24" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="130" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="130"/>
+      <c r="C25" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="116" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="130" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="130"/>
+      <c r="C26" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="130" t="s">
+      <c r="D26" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F26" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="130" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="130"/>
+      <c r="C27" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="130" t="s">
+      <c r="D27" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="130" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="130"/>
+      <c r="C28" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="130" t="s">
+      <c r="D28" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F28" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="130" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="130"/>
+      <c r="C29" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="130" t="s">
+      <c r="D29" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="130" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="130"/>
+      <c r="C30" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="130" t="s">
+      <c r="D30" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="131"/>
-      <c r="C25" s="130" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="130"/>
+      <c r="C31" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="130" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="130" t="s">
+      <c r="D31" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="131"/>
-      <c r="C26" s="130" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="135">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="130"/>
+      <c r="C32" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="130" t="s">
+      <c r="D32" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F32" s="129" t="s">
         <v>249</v>
-      </c>
-      <c r="F26" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="F27" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="130" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="F28" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="F29" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B30" s="131"/>
-      <c r="C30" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="130" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="F30" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B31" s="131"/>
-      <c r="C31" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="130" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="F31" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="136">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="131"/>
-      <c r="C32" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="130" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="F32" s="130" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -9720,7 +9696,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9747,10 +9723,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -9765,16 +9741,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="7"/>
@@ -9785,20 +9761,20 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="116" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="199" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="201" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="201" t="s">
-        <v>357</v>
-      </c>
-      <c r="E4" s="200" t="s">
-        <v>358</v>
+      <c r="D4" s="199" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="198" t="s">
+        <v>355</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
@@ -10027,173 +10003,176 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="184" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+    </row>
+    <row r="2" spans="1:7" ht="252" x14ac:dyDescent="0.15">
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="190" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="190" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="190" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="187" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="188" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-    </row>
-    <row r="2" spans="1:7" ht="252" x14ac:dyDescent="0.15">
-      <c r="A2" s="190"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="191" t="s">
+      <c r="F2" s="190" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="G2" s="190" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="191" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="191" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="191" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="192" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="193" t="s">
+      <c r="E3" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="192" t="s">
+      <c r="F3" s="191" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="192" t="s">
+      <c r="G3" s="191" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="194">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="195" t="s">
+      <c r="A4" s="193">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="188"/>
+      <c r="C4" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="196" t="s">
+      <c r="D4" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="188" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="189" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="194">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="195" t="s">
+      <c r="A5" s="193">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="188"/>
+      <c r="C5" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="196" t="s">
+      <c r="D5" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="196" t="s">
+      <c r="E5" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="197" t="s">
+      <c r="F5" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="188" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="189" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="194">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="195" t="s">
+      <c r="A6" s="193">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="188"/>
+      <c r="C6" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="196" t="s">
+      <c r="D6" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="196" t="s">
+      <c r="E6" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="197" t="s">
+      <c r="F6" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="188" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="189" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="194">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="195" t="s">
+      <c r="A7" s="193">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="196" t="s">
+      <c r="D7" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="196" t="s">
+      <c r="E7" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="197" t="s">
+      <c r="F7" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="188" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="189" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="194">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="195" t="s">
+      <c r="A8" s="193">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="188"/>
+      <c r="C8" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="196" t="s">
+      <c r="D8" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="196" t="s">
+      <c r="E8" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="197" t="s">
+      <c r="F8" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="188" t="s">
         <v>249</v>
-      </c>
-      <c r="G8" s="189" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -10205,7 +10184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:IU15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10219,7 +10200,7 @@
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -10492,7 +10473,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>246</v>
@@ -11027,11 +11008,11 @@
       <c r="D4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -11294,11 +11275,11 @@
       <c r="D5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>251</v>
+      <c r="E5" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -11561,11 +11542,11 @@
       <c r="D6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>253</v>
+      <c r="E6" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -11828,11 +11809,11 @@
       <c r="D7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>253</v>
+      <c r="E7" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -12095,11 +12076,11 @@
       <c r="D8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>249</v>
+      <c r="E8" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -12362,11 +12343,11 @@
       <c r="D9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>251</v>
+      <c r="E9" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -12629,11 +12610,11 @@
       <c r="D10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -12896,11 +12877,11 @@
       <c r="D11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>251</v>
+      <c r="E11" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -13163,11 +13144,11 @@
       <c r="D12" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>253</v>
+      <c r="E12" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -13430,11 +13411,11 @@
       <c r="D13" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>253</v>
+      <c r="E13" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -13697,11 +13678,11 @@
       <c r="D14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>249</v>
+      <c r="E14" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -13964,11 +13945,11 @@
       <c r="D15" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>251</v>
+      <c r="E15" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -14234,7 +14215,7 @@
   <dimension ref="A1:IU15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14249,7 +14230,7 @@
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B1" s="81" t="s">
         <v>1</v>
@@ -14522,7 +14503,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F2" s="89" t="s">
         <v>246</v>
@@ -14546,7 +14527,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E3" s="93" t="s">
         <v>247</v>
@@ -14573,11 +14554,11 @@
       <c r="D4" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="95" t="s">
         <v>249</v>
-      </c>
-      <c r="F4" s="95" t="s">
-        <v>250</v>
       </c>
       <c r="G4" s="84"/>
       <c r="H4" s="84"/>
@@ -14598,11 +14579,11 @@
       <c r="D5" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>253</v>
+      <c r="E5" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F5" s="95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
@@ -14623,11 +14604,11 @@
       <c r="D6" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="95" t="s">
-        <v>249</v>
+      <c r="E6" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G6" s="84"/>
       <c r="H6" s="84"/>
@@ -14648,11 +14629,11 @@
       <c r="D7" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="95" t="s">
-        <v>251</v>
+      <c r="E7" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F7" s="95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G7" s="84"/>
       <c r="H7" s="84"/>
@@ -14673,11 +14654,11 @@
       <c r="D8" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="95" t="s">
-        <v>251</v>
+      <c r="E8" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F8" s="95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G8" s="84"/>
       <c r="H8" s="84"/>
@@ -14698,11 +14679,11 @@
       <c r="D9" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>253</v>
+      <c r="E9" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F9" s="95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G9" s="84"/>
       <c r="H9" s="84"/>
@@ -14723,11 +14704,11 @@
       <c r="D10" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="95" t="s">
         <v>249</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>250</v>
       </c>
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
@@ -14748,11 +14729,11 @@
       <c r="D11" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>253</v>
+      <c r="E11" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F11" s="95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G11" s="84"/>
       <c r="H11" s="84"/>
@@ -14773,11 +14754,11 @@
       <c r="D12" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>249</v>
+      <c r="E12" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F12" s="95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
@@ -14798,11 +14779,11 @@
       <c r="D13" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="95" t="s">
-        <v>251</v>
+      <c r="E13" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G13" s="84"/>
       <c r="H13" s="84"/>
@@ -14823,11 +14804,11 @@
       <c r="D14" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="95" t="s">
-        <v>251</v>
+      <c r="E14" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G14" s="84"/>
       <c r="H14" s="84"/>
@@ -14848,11 +14829,11 @@
       <c r="D15" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="95" t="s">
-        <v>253</v>
+      <c r="E15" s="212" t="s">
+        <v>368</v>
       </c>
       <c r="F15" s="95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="84"/>
@@ -15118,7 +15099,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15129,82 +15110,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A2" s="159"/>
+      <c r="B2" s="159" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="159" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="159"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="160" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="160" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="158" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="159" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.15">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160" t="s">
+      <c r="C3" s="160" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="160"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C4" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="162"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="162"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="162" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="160"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="161" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="161" t="s">
+      <c r="C6" s="124" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="161"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="162" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="163"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="163"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="163" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="163"/>
+      <c r="D6" s="162"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15599,7 +15580,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15611,74 +15592,74 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="204" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="206" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" s="206" t="s">
-        <v>370</v>
+      <c r="C2" s="204" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A3" s="207" t="s">
-        <v>366</v>
-      </c>
-      <c r="B3" s="208" t="s">
-        <v>367</v>
-      </c>
-      <c r="C3" s="209" t="s">
-        <v>368</v>
+      <c r="A3" s="205" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="206" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="207" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="209" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="211" t="s">
+      <c r="C5" s="209" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="211" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="209" t="s">
         <v>176</v>
       </c>
     </row>
@@ -15694,7 +15675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -16231,14 +16212,14 @@
         <v>24</v>
       </c>
       <c r="D14" s="112" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="113"/>
       <c r="G14" s="111" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H14" s="113"/>
       <c r="I14" s="113"/>
@@ -16268,14 +16249,14 @@
         <v>24</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
@@ -16305,14 +16286,14 @@
         <v>24</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F16" s="99"/>
       <c r="G16" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
@@ -16341,17 +16322,17 @@
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="117" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="117" t="s">
-        <v>317</v>
+      <c r="D17" s="116" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" s="116" t="s">
+        <v>314</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H17" s="116" t="s">
         <v>95</v>
       </c>
       <c r="I17" s="4"/>
@@ -16377,76 +16358,76 @@
         <v>42736</v>
       </c>
       <c r="B18" s="109"/>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="179" t="s">
-        <v>332</v>
-      </c>
-      <c r="E18" s="179" t="s">
-        <v>333</v>
-      </c>
-      <c r="F18" s="180"/>
-      <c r="G18" s="178" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="178" t="s">
+      <c r="D18" s="178" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="178" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="179"/>
+      <c r="G18" s="177" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" s="178"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="180"/>
-      <c r="R18" s="180"/>
-      <c r="S18" s="181"/>
-      <c r="T18" s="182"/>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="183"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="180"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="181"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="182"/>
     </row>
     <row r="19" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="109">
         <v>42736</v>
       </c>
       <c r="B19" s="109"/>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="179" t="s">
-        <v>335</v>
-      </c>
-      <c r="E19" s="179" t="s">
-        <v>336</v>
-      </c>
-      <c r="F19" s="180"/>
-      <c r="G19" s="178" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="178" t="s">
+      <c r="D19" s="178" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="178" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="179"/>
+      <c r="G19" s="177" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="178" t="s">
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="180"/>
-      <c r="Q19" s="180"/>
-      <c r="R19" s="180"/>
-      <c r="S19" s="181"/>
-      <c r="T19" s="182"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="182"/>
-      <c r="W19" s="183"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="179"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="179"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="180"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="181"/>
+      <c r="V19" s="181"/>
+      <c r="W19" s="182"/>
     </row>
     <row r="20" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
@@ -17205,7 +17186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -17273,7 +17254,7 @@
       <c r="E3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="184" t="s">
+      <c r="F3" s="183" t="s">
         <v>144</v>
       </c>
       <c r="G3" s="8"/>
@@ -17562,7 +17543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -17631,8 +17612,8 @@
       <c r="G2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="198" t="s">
-        <v>343</v>
+      <c r="H2" s="196" t="s">
+        <v>340</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>35</v>
@@ -17679,7 +17660,7 @@
       <c r="G3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="199" t="s">
+      <c r="H3" s="197" t="s">
         <v>144</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -17727,8 +17708,8 @@
         <v>120</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="150" t="s">
-        <v>346</v>
+      <c r="H4" s="149" t="s">
+        <v>343</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -17763,8 +17744,8 @@
         <v>122</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="150" t="s">
-        <v>347</v>
+      <c r="H5" s="149" t="s">
+        <v>344</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -17799,8 +17780,8 @@
         <v>124</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="150" t="s">
-        <v>348</v>
+      <c r="H6" s="149" t="s">
+        <v>345</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -17835,8 +17816,8 @@
         <v>125</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="150" t="s">
-        <v>344</v>
+      <c r="H7" s="149" t="s">
+        <v>341</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -17873,8 +17854,8 @@
       <c r="G8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="150" t="s">
-        <v>345</v>
+      <c r="H8" s="149" t="s">
+        <v>342</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -17909,7 +17890,7 @@
         <v>128</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="119"/>
+      <c r="H9" s="118"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -17943,7 +17924,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="119"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -17977,7 +17958,7 @@
         <v>131</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="119"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -18011,7 +17992,7 @@
         <v>53</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="119"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -18045,7 +18026,7 @@
         <v>133</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="119"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -18079,7 +18060,7 @@
         <v>135</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="119"/>
+      <c r="H14" s="118"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -18113,7 +18094,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="119"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -18147,7 +18128,7 @@
         <v>138</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="119"/>
+      <c r="H16" s="118"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -18181,7 +18162,7 @@
         <v>140</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="119"/>
+      <c r="H17" s="118"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -18215,7 +18196,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="119"/>
+      <c r="H18" s="118"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -18249,7 +18230,7 @@
         <v>138</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="119"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -18283,7 +18264,7 @@
         <v>140</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="119"/>
+      <c r="H20" s="118"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -18912,7 +18893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
@@ -19022,13 +19003,13 @@
         <v>160</v>
       </c>
       <c r="R2" s="103" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S2" s="106" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T2" s="106" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="U2" s="5"/>
     </row>
@@ -19085,13 +19066,13 @@
         <v>169</v>
       </c>
       <c r="R3" s="104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S3" s="107" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="T3" s="107" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U3" s="8"/>
     </row>
@@ -19120,10 +19101,10 @@
         <v>145</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
@@ -19139,7 +19120,7 @@
         <v>172</v>
       </c>
       <c r="S4" s="99" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="T4" s="99" t="s">
         <v>172</v>
@@ -19188,7 +19169,7 @@
         <v>176</v>
       </c>
       <c r="S5" s="99" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T5" s="99"/>
       <c r="U5" s="4"/>
